--- a/biology/Médecine/Liste_de_plantes_allergisantes/Liste_de_plantes_allergisantes.xlsx
+++ b/biology/Médecine/Liste_de_plantes_allergisantes/Liste_de_plantes_allergisantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste (non exhastive) contient des plantes réputées allergisantes pour l'humain.Il faut toutefois garder à l'esprit que l'allergie à une plante dépend de nombreux facteurs, comme la partie de la plante incriminée, les facteurs environnementaux tels que la pollution, la façon dont l'organisme est entré en contact avec cette plante, la dose à laquelle l'organisme a été exposé, l'état général de cet organisme, les prédispositions individuelles, etc.
 </t>
@@ -513,13 +525,59 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Allergie respiratoire
-Liste du RNSA
-En France, le Réseau national de surveillance aérobiologique (RNSA) a classé 25 végétaux produisant des pollens à l'origine de symptômes d'allergie. Ils sont notés de 0 (nul) à 5 (très fort) sur une échelle de «potentiel allergisant».
+          <t>Allergie respiratoire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Liste du RNSA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En France, le Réseau national de surveillance aérobiologique (RNSA) a classé 25 végétaux produisant des pollens à l'origine de symptômes d'allergie. Ils sont notés de 0 (nul) à 5 (très fort) sur une échelle de «potentiel allergisant».
 Parmi les arbres figurent par ordre décroissant  : (5): le cyprès et le bouleau, (4): l'aulne, le frêne et le chêne, (3): le noisetier, le saule, le charme, le platane, le tilleul et l'olivier, (2): le peuplier, le châtaignier le hêtre et le murier, (1): l'orme, (0): Le pin (produit des pollens mais non allergisants)
-Parmi les herbacées : (5): L'ambroisie et les graminées, (4): l'armoise, (3): le plantain, le chenopode, (2): l'oseille, (1): l'ortie
-Autres plantes
-De nombreuses espèces anémophiles, c'est-à-dire pollinisées par le vent.
+Parmi les herbacées : (5): L'ambroisie et les graminées, (4): l'armoise, (3): le plantain, le chenopode, (2): l'oseille, (1): l'ortie</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_allergisantes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_allergisantes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Plantes allergisantes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Allergie respiratoire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Autres plantes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>De nombreuses espèces anémophiles, c'est-à-dire pollinisées par le vent.
 Conifères
 Urticaceae
 Chenopodiaceae
@@ -527,9 +585,43 @@
 Salicaceae
 Platanaceae
 Asteraceae
-Poaceae
-Allergie cutanée
-Ache, Apium graveolens, Apiaceae
+Poaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_allergisantes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_allergisantes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Plantes allergisantes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Allergie cutanée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ache, Apium graveolens, Apiaceae
 Abelmoschus, Abelmoschus esculentus, Malvaceae
 Ammi, Ammi majus, Apiaceae
 Angélique, Angelica archangelica, Apiaceae
@@ -542,9 +634,43 @@
 Panais, Pastinaca sativa, Apiaceae
 Sumac, Rhus spp. et Toxicodendron spp., Anacardiaceae
 Rue, Ruta graveolens, Rutaceae
-Loiseleur, Peucedanum paniculatum, Apiaceae
-Allergie digestive
-Abricotier, Prunus armeniaca, Rosaceae
+Loiseleur, Peucedanum paniculatum, Apiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_allergisantes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_allergisantes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Plantes allergisantes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allergie digestive</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Abricotier, Prunus armeniaca, Rosaceae
 Arachide, Arachis hypogea, Fabaceae
 Avoine, Avena sativa, Poaceae
 Blé, Triticum spp., Poaceae
